--- a/src/predicciones/holt_winters/producto_92.xlsx
+++ b/src/predicciones/holt_winters/producto_92.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,1267 +404,981 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44934</v>
       </c>
       <c r="B2">
-        <v>1.068879942062154</v>
+        <v>1.078434014225792</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44938</v>
       </c>
       <c r="B3">
-        <v>2.008795436094976</v>
+        <v>1.091206706473599</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44940</v>
       </c>
       <c r="B4">
-        <v>1.056958252668922</v>
+        <v>1.18917124225812</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44941</v>
       </c>
       <c r="B5">
-        <v>1.077360493995278</v>
+        <v>1.257767536613175</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44945</v>
       </c>
       <c r="B6">
-        <v>2.083519533094786</v>
+        <v>1.230972355316705</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44948</v>
       </c>
       <c r="B7">
-        <v>1.089046306207446</v>
+        <v>2.19661843510803</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44958</v>
       </c>
       <c r="B8">
-        <v>1.08604974832876</v>
+        <v>1.080031564496252</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44959</v>
       </c>
       <c r="B9">
-        <v>1.087235819489081</v>
+        <v>1.081484217006627</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44960</v>
       </c>
       <c r="B10">
-        <v>2.027151313521903</v>
+        <v>1.094256909254435</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44964</v>
       </c>
       <c r="B11">
-        <v>1.075314130095849</v>
+        <v>1.192221445038956</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44966</v>
       </c>
       <c r="B12">
-        <v>1.095716371422204</v>
+        <v>1.260817739394011</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44973</v>
       </c>
       <c r="B13">
-        <v>2.101875410521713</v>
+        <v>1.234022558097541</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44978</v>
       </c>
       <c r="B14">
-        <v>1.107402183634373</v>
+        <v>2.199668637888865</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44979</v>
       </c>
       <c r="B15">
-        <v>1.104405625755687</v>
+        <v>1.083081767277087</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44980</v>
       </c>
       <c r="B16">
-        <v>1.105591696916008</v>
+        <v>1.084534419787463</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44981</v>
       </c>
       <c r="B17">
-        <v>2.04550719094883</v>
+        <v>1.09730711203527</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44990</v>
       </c>
       <c r="B18">
-        <v>1.093670007522776</v>
+        <v>1.195271647819791</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44995</v>
       </c>
       <c r="B19">
-        <v>1.114072248849131</v>
+        <v>1.263867942174846</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>45000</v>
       </c>
       <c r="B20">
-        <v>2.12023128794864</v>
+        <v>1.237072760878376</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>45004</v>
       </c>
       <c r="B21">
-        <v>1.1257580610613</v>
+        <v>2.202718840669701</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>45007</v>
       </c>
       <c r="B22">
-        <v>1.122761503182614</v>
+        <v>1.086131970057923</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>45013</v>
       </c>
       <c r="B23">
-        <v>1.123947574342935</v>
+        <v>1.087584622568298</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>45015</v>
       </c>
       <c r="B24">
-        <v>2.063863068375757</v>
+        <v>1.100357314816106</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>45017</v>
       </c>
       <c r="B25">
-        <v>1.112025884949702</v>
+        <v>1.198321850600627</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>45030</v>
       </c>
       <c r="B26">
-        <v>1.132428126276058</v>
+        <v>1.266918144955682</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>45031</v>
       </c>
       <c r="B27">
-        <v>2.138587165375566</v>
+        <v>1.240122963659212</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>45032</v>
       </c>
       <c r="B28">
-        <v>1.144113938488226</v>
+        <v>2.205769043450537</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>45033</v>
       </c>
       <c r="B29">
-        <v>1.141117380609541</v>
+        <v>1.089182172838759</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45038</v>
       </c>
       <c r="B30">
-        <v>1.142303451769862</v>
+        <v>1.090634825349134</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45040</v>
       </c>
       <c r="B31">
-        <v>2.082218945802683</v>
+        <v>1.103407517596941</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45043</v>
       </c>
       <c r="B32">
-        <v>1.130381762376629</v>
+        <v>1.201372053381462</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45058</v>
       </c>
       <c r="B33">
-        <v>1.150784003702985</v>
+        <v>1.269968347736517</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45074</v>
       </c>
       <c r="B34">
-        <v>2.156943042802493</v>
+        <v>1.243173166440048</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45075</v>
       </c>
       <c r="B35">
-        <v>1.162469815915153</v>
+        <v>2.208819246231372</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45086</v>
       </c>
       <c r="B36">
-        <v>1.159473258036468</v>
+        <v>1.092232375619594</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45088</v>
       </c>
       <c r="B37">
-        <v>1.160659329196788</v>
+        <v>1.09368502812997</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45089</v>
       </c>
       <c r="B38">
-        <v>2.10057482322961</v>
+        <v>1.106457720377777</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45090</v>
       </c>
       <c r="B39">
-        <v>1.148737639803556</v>
+        <v>1.204422256162298</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45093</v>
       </c>
       <c r="B40">
-        <v>1.169139881129912</v>
+        <v>1.273018550517353</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45094</v>
       </c>
       <c r="B41">
-        <v>2.17529892022942</v>
+        <v>1.246223369220883</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45097</v>
       </c>
       <c r="B42">
-        <v>1.18082569334208</v>
+        <v>2.211869449012208</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45108</v>
       </c>
       <c r="B43">
-        <v>1.177829135463394</v>
+        <v>1.09528257840043</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45113</v>
       </c>
       <c r="B44">
-        <v>1.179015206623715</v>
+        <v>1.096735230910805</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45114</v>
       </c>
       <c r="B45">
-        <v>2.118930700656537</v>
+        <v>1.109507923158613</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45120</v>
       </c>
       <c r="B46">
-        <v>1.167093517230483</v>
+        <v>1.207472458943134</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45126</v>
       </c>
       <c r="B47">
-        <v>1.187495758556838</v>
+        <v>1.276068753298189</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45128</v>
       </c>
       <c r="B48">
-        <v>2.193654797656347</v>
+        <v>1.249273572001719</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45140</v>
       </c>
       <c r="B49">
-        <v>1.199181570769007</v>
+        <v>2.214919651793044</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45142</v>
       </c>
       <c r="B50">
-        <v>1.196185012890321</v>
+        <v>1.098332781181266</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45144</v>
       </c>
       <c r="B51">
-        <v>1.197371084050642</v>
+        <v>1.099785433691641</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45145</v>
       </c>
       <c r="B52">
-        <v>2.137286578083464</v>
+        <v>1.112558125939448</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45148</v>
       </c>
       <c r="B53">
-        <v>1.18544939465741</v>
+        <v>1.210522661723969</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45150</v>
       </c>
       <c r="B54">
-        <v>1.205851635983765</v>
+        <v>1.279118956079024</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45151</v>
       </c>
       <c r="B55">
-        <v>2.212010675083274</v>
+        <v>1.252323774782554</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45154</v>
       </c>
       <c r="B56">
-        <v>1.217537448195934</v>
+        <v>2.217969854573879</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45162</v>
       </c>
       <c r="B57">
-        <v>1.214540890317248</v>
+        <v>1.101382983962101</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45163</v>
       </c>
       <c r="B58">
-        <v>1.215726961477569</v>
+        <v>1.102835636472477</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45164</v>
       </c>
       <c r="B59">
-        <v>2.155642455510391</v>
+        <v>1.115608328720284</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45178</v>
       </c>
       <c r="B60">
-        <v>1.203805272084337</v>
+        <v>1.213572864504805</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45190</v>
       </c>
       <c r="B61">
-        <v>1.224207513410692</v>
+        <v>1.28216915885986</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45202</v>
       </c>
       <c r="B62">
-        <v>2.2303665525102</v>
+        <v>1.25537397756339</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45204</v>
       </c>
       <c r="B63">
-        <v>1.23589332562286</v>
+        <v>2.221020057354715</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45212</v>
       </c>
       <c r="B64">
-        <v>1.232896767744175</v>
+        <v>1.104433186742937</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45221</v>
       </c>
       <c r="B65">
-        <v>1.234082838904496</v>
+        <v>1.105885839253312</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45238</v>
       </c>
       <c r="B66">
-        <v>2.173998332937317</v>
+        <v>1.118658531501119</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45240</v>
       </c>
       <c r="B67">
-        <v>1.222161149511263</v>
+        <v>1.216623067285641</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45243</v>
       </c>
       <c r="B68">
-        <v>1.242563390837619</v>
+        <v>1.285219361640696</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45255</v>
       </c>
       <c r="B69">
-        <v>2.248722429937127</v>
+        <v>1.258424180344226</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45257</v>
       </c>
       <c r="B70">
-        <v>1.254249203049787</v>
+        <v>2.224070260135551</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45258</v>
       </c>
       <c r="B71">
-        <v>1.251252645171101</v>
+        <v>1.107483389523772</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45270</v>
       </c>
       <c r="B72">
-        <v>1.252438716331422</v>
+        <v>1.108936042034148</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45271</v>
       </c>
       <c r="B73">
-        <v>2.192354210364244</v>
+        <v>1.121708734281955</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45274</v>
       </c>
       <c r="B74">
-        <v>1.24051702693819</v>
+        <v>1.219673270066476</v>
       </c>
       <c r="C74">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45275</v>
       </c>
       <c r="B75">
-        <v>1.260919268264546</v>
+        <v>1.288269564421531</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45282</v>
       </c>
       <c r="B76">
-        <v>2.267078307364054</v>
+        <v>1.261474383125061</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45290</v>
       </c>
       <c r="B77">
-        <v>1.272605080476714</v>
+        <v>2.227120462916386</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45296</v>
       </c>
       <c r="B78">
-        <v>1.269608522598028</v>
+        <v>1.110533592304608</v>
       </c>
       <c r="C78">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45301</v>
       </c>
       <c r="B79">
-        <v>1.270794593758349</v>
+        <v>1.111986244814984</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45302</v>
       </c>
       <c r="B80">
-        <v>2.210710087791171</v>
+        <v>1.124758937062791</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45305</v>
       </c>
       <c r="B81">
-        <v>1.258872904365117</v>
+        <v>1.222723472847312</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45306</v>
       </c>
       <c r="B82">
-        <v>1.279275145691472</v>
+        <v>1.291319767202367</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45310</v>
       </c>
       <c r="B83">
-        <v>2.285434184790981</v>
+        <v>1.264524585905897</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45311</v>
       </c>
       <c r="B84">
-        <v>1.290960957903641</v>
+        <v>2.230170665697222</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45317</v>
       </c>
       <c r="B85">
-        <v>1.287964400024955</v>
+        <v>1.113583795085444</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45319</v>
       </c>
       <c r="B86">
-        <v>1.289150471185276</v>
+        <v>1.115036447595819</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>45324</v>
       </c>
       <c r="B87">
-        <v>2.229065965218098</v>
+        <v>1.127809139843627</v>
       </c>
       <c r="C87">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>45334</v>
       </c>
       <c r="B88">
-        <v>1.277228781792044</v>
+        <v>1.225773675628148</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>45342</v>
       </c>
       <c r="B89">
-        <v>1.297631023118399</v>
+        <v>1.294369969983203</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
+      <c r="A90" s="2">
+        <v>45348</v>
       </c>
       <c r="B90">
-        <v>2.303790062217907</v>
+        <v>1.267574788686733</v>
       </c>
       <c r="C90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91">
-        <v>1.309316835330568</v>
-      </c>
-      <c r="C91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92">
-        <v>1.306320277451882</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93">
-        <v>1.307506348612203</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>2.247421842645025</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>1.295584659218971</v>
-      </c>
-      <c r="C95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>1.315986900545326</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97">
-        <v>2.322145939644834</v>
-      </c>
-      <c r="C97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <v>1.327672712757494</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99">
-        <v>1.324676154878809</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <v>1.32586222603913</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101">
-        <v>2.265777720071951</v>
-      </c>
-      <c r="C101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102">
-        <v>1.313940536645897</v>
-      </c>
-      <c r="C102">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103">
-        <v>1.334342777972253</v>
-      </c>
-      <c r="C103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104">
-        <v>2.340501817071761</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105">
-        <v>1.346028590184421</v>
-      </c>
-      <c r="C105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="B106">
-        <v>1.343032032305736</v>
-      </c>
-      <c r="C106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107">
-        <v>1.344218103466056</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108">
-        <v>2.284133597498878</v>
-      </c>
-      <c r="C108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109">
-        <v>1.332296414072824</v>
-      </c>
-      <c r="C109">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110">
-        <v>1.35269865539918</v>
-      </c>
-      <c r="C110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111">
-        <v>2.358857694498688</v>
-      </c>
-      <c r="C111">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112">
-        <v>1.364384467611348</v>
-      </c>
-      <c r="C112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113">
-        <v>1.361387909732663</v>
-      </c>
-      <c r="C113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114">
-        <v>1.362573980892983</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115">
-        <v>2.302489474925805</v>
-      </c>
-      <c r="C115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="1">
-        <v>114</v>
-      </c>
-      <c r="B116">
-        <v>1.350652291499751</v>
-      </c>
-      <c r="C116">
         <v>1</v>
       </c>
     </row>
